--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +501,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +548,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +703,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +750,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +905,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +952,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1107,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1154,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1372,10 +1396,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1419,28 +1443,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1465,28 +1489,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1598,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1645,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1776,10 +1800,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1823,28 +1847,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1869,28 +1893,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2123,10 +2147,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2170,28 +2194,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2216,28 +2240,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2325,10 +2349,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2372,28 +2396,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2418,28 +2442,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2614,10 +2638,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2661,28 +2685,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2707,28 +2731,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2816,10 +2840,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2863,28 +2887,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2909,28 +2933,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3163,10 +3187,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3210,28 +3234,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3256,28 +3280,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3365,10 +3389,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3412,28 +3436,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3458,28 +3482,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3596,10 +3620,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3643,28 +3667,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3689,28 +3713,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3827,10 +3851,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3874,28 +3898,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3920,28 +3944,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4029,10 +4053,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4076,28 +4100,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4122,28 +4146,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4434,10 +4458,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4481,28 +4505,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4527,28 +4551,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4810,10 +4834,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4857,28 +4881,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4903,28 +4927,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5012,10 +5036,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5059,28 +5083,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5105,28 +5129,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5214,10 +5238,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5261,28 +5285,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5307,28 +5331,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5474,10 +5498,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5521,28 +5545,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5567,28 +5591,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5966,10 +5990,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6013,28 +6037,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6059,28 +6083,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6197,10 +6221,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6244,28 +6268,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6290,28 +6314,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6428,10 +6452,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6475,28 +6499,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6521,28 +6545,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6659,10 +6683,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
